--- a/data/ex_obs_all.xlsx
+++ b/data/ex_obs_all.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunduniversityo365-my.sharepoint.com/personal/ekol-usa_lu_se/Documents/Dokument/riskkurs_2024/Ex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rfolder\MVEN10material\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D9F683D-C6CC-4C19-BA1C-71E405A7F500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B684E5F-F023-4EB2-9C7D-179E651420C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{E69106B2-8F4D-487F-B893-5C6E28303309}"/>
   </bookViews>
@@ -756,13 +756,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7493EEA-F8A5-46FD-A909-814E6CF782A0}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1061,7 +1064,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C31">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
